--- a/2022_06_21/2022_06_21_EUROSTOXX_MaxArea_Portfolio_250.xlsx
+++ b/2022_06_21/2022_06_21_EUROSTOXX_MaxArea_Portfolio_250.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\investments_f\2022_06_21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2130DB0-789F-46DB-8640-72C34011D107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC669CC-3F57-42AC-9952-A28014614071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,8 +193,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,7 +513,7 @@
   <dimension ref="A1:AQ7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -824,6 +825,180 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:43">
+      <c r="A3" s="1">
+        <f>A2/235.01</f>
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:AQ3" si="0">B2/235.01</f>
+        <v>6.3288184989247001E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25341828385256138</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13483113037379668</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6299669922436844E-2</v>
+      </c>
+      <c r="AD3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10693200307879296</v>
+      </c>
+      <c r="AL3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39523072778316509</v>
+      </c>
+      <c r="AP3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="7" spans="1:43">
       <c r="D7">
         <f>SUM(2:2)</f>
